--- a/FileGunBasin/9 August-04 StormBasin/dsafdfs 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/dsafdfs 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E983419-2D50-9842-8DAD-5FED695A7339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9432FFEA-1D41-5948-A024-151B9D133AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{1C769FDA-FEDC-B445-9B57-04F9C8984EA6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
   <si>
     <t>search_volume</t>
   </si>
@@ -327,7 +327,7 @@
     <t>mapping_id</t>
   </si>
   <si>
-    <t>zhe_serpjar_mappings</t>
+    <t>zhebel_serpjar_mappings</t>
   </si>
 </sst>
 </file>
@@ -762,14 +762,15 @@
   <dimension ref="C1:K184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E147" sqref="E147"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1277,12 +1278,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E145" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="7" t="s">
@@ -1292,12 +1293,12 @@
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E150" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D151" s="3" t="s">
         <v>95</v>
       </c>
@@ -1310,9 +1311,14 @@
       <c r="G151" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H151" s="3"/>
-    </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H151" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D152">
         <v>1</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D153">
         <v>2</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D154">
         <v>3</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D155">
         <v>4</v>
       </c>
@@ -1368,16 +1374,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F156" s="10"/>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F157" s="10"/>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F158" s="10"/>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E160" s="2" t="s">
         <v>87</v>
       </c>
